--- a/scripts/StateSpaceModelling/statespacemodels/ssm_ccm - full.xlsx
+++ b/scripts/StateSpaceModelling/statespacemodels/ssm_ccm - full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvilm\PycharmProjects\StateSpaceModelling\statespacemodels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3621C9-A60D-4A1E-88DB-D2D6D55E1839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE6B9C1-36FB-4687-9BBD-EFA4B8C8AF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="874" firstSheet="2" activeTab="6" xr2:uid="{0FEFD857-ED60-4427-9A78-6EB1BAE03D7E}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12645" tabRatio="874" activeTab="7" xr2:uid="{0FEFD857-ED60-4427-9A78-6EB1BAE03D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="HSC1_L" sheetId="3" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="275">
   <si>
     <t>group</t>
   </si>
@@ -840,25 +840,49 @@
     <t>v_{o}^q</t>
   </si>
   <si>
+    <t>-w_c*V_od</t>
+  </si>
+  <si>
+    <t>-w_c*I_oq</t>
+  </si>
+  <si>
+    <t>-I_oq</t>
+  </si>
+  <si>
+    <t>Vbase</t>
+  </si>
+  <si>
+    <t>Ibase</t>
+  </si>
+  <si>
+    <t>sin(d0)/Vbase</t>
+  </si>
+  <si>
+    <t>cos(d0)/Vbase</t>
+  </si>
+  <si>
+    <t>-sin(d0)/Vbase</t>
+  </si>
+  <si>
+    <t>cos(d0)*x_lc*Ibase</t>
+  </si>
+  <si>
+    <t>-sin(d0)*x_lc*Ibase</t>
+  </si>
+  <si>
+    <t>sin(d0)*x_lc*Ibase</t>
+  </si>
+  <si>
     <t>(-V_oD*sin(d0)-V_oQ*cos(d0))*x_lc</t>
   </si>
   <si>
     <t>(V_oD*cos(d0)-V_oQ*sin(d0))*x_lc</t>
   </si>
   <si>
-    <t>(-I_od*sin(d0)+I_oq*cos(d0))*x_lc</t>
-  </si>
-  <si>
-    <t>(-I_od*cos(d0)-I_oq*sin(d0))*x_lc</t>
-  </si>
-  <si>
-    <t>-w_c*V_od</t>
-  </si>
-  <si>
-    <t>-w_c*I_oq</t>
-  </si>
-  <si>
-    <t>-I_oq</t>
+    <t>(-I_od*cos(d0)-I_oq*sin(d0))*x_lc*Ibase</t>
+  </si>
+  <si>
+    <t>(-I_od*sin(d0)+I_oq*cos(d0))*x_lc*Ibase</t>
   </si>
 </sst>
 </file>
@@ -1145,9 +1169,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1185,7 +1209,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1291,7 +1315,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1433,7 +1457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5799,10 +5823,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6131,67 +6155,67 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" t="s">
-        <v>97</v>
+        <v>263</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F23" t="s">
-        <v>98</v>
+        <v>264</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
         <v>133</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>133</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
         <v>133</v>
       </c>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>133</v>
       </c>
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s">
         <v>133</v>
@@ -6199,7 +6223,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s">
         <v>133</v>
@@ -6207,9 +6231,25 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6939,7 +6979,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6984,7 +7024,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7043,10 +7083,10 @@
         <v>73</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>70</v>
@@ -7401,8 +7441,8 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7449,7 +7489,7 @@
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7503,8 +7543,8 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7532,13 +7572,13 @@
         <v>37</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7546,27 +7586,27 @@
         <v>38</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s">
-        <v>206</v>
+      <c r="D4" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7576,13 +7616,13 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>206</v>
+        <v>265</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -7598,7 +7638,9 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
